--- a/biology/Médecine/Serge_Hefez/Serge_Hefez.xlsx
+++ b/biology/Médecine/Serge_Hefez/Serge_Hefez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serge Samuel Hefez est un psychiatre et psychanalyste français né à Alexandrie en Égypte, le 11 février 1955.
 </t>
@@ -511,21 +523,23 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Hefez, né Serge-Samuel Hefes[1], naît à Alexandrie, mais sa famille, juive d'origine, doit quitter l'Égypte en 1957. Il devient médecin et psychiatre des hôpitaux. Il exerce comme psychanalyste et thérapeute familial et conjugal. Responsable de l’Unité de thérapie familiale dans le service de psychiatrie de l’enfant et de l’adolescent à l’hôpital de la Pitié-Salpêtrière à Paris[2], il est également praticien hospitalier temps partiel au Groupe hospitalier universitaire Paris psychiatrie et neurosciences (GHU PARIS) où il dirige ESPAS, une unité de soutien psychologique pour les personnes concernées par le sida ou les problématiques liées à la sexualité. Il est aussi spécialiste des questions liées à la toxicomanie[3].
-Il participe aux activités du MLAC (Mouvement pour la liberté de l'avortement et de la contraception) au début de ses études de médecine en 1973 jusqu'au vote de la Loi Veil en 1975[4]. Dans ces années là, il est actif dans la communauté homosexuelle, il joue dans le film Race d'Ep de Lionel Soukaz et participe au comité de rédaction du magazine Le Gai Pied[5]. Très impliqué dans la lutte contre le Sida, il présente l'émission Ruban rouge sur France 5 en 1995 et 1996[6]. Ainsi, dans une tribune de Libération, il préconise de fournir aux toxicomanes dans les prisons, de l'eau de Javel et du matériel stérile d'injection pour éviter la propagation du sida[7].
-Il intervient dans de nombreux colloques nationaux et internationaux sur les problématiques du couple et de la famille[réf. nécessaire]. En collaboration avec le magazine Libération, il a créé le blog « Familles, je vous haime »[8] consacré à l’analyse de l’actualité sociale et ses répercussions sur les relations humaines[9].
-Dans La Sarkose obsessionnelle, paru un an après l'élection présidentielle de 2007, il analyse le narcissisme de la société française à travers celui de Nicolas Sarkozy[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Hefez, né Serge-Samuel Hefes, naît à Alexandrie, mais sa famille, juive d'origine, doit quitter l'Égypte en 1957. Il devient médecin et psychiatre des hôpitaux. Il exerce comme psychanalyste et thérapeute familial et conjugal. Responsable de l’Unité de thérapie familiale dans le service de psychiatrie de l’enfant et de l’adolescent à l’hôpital de la Pitié-Salpêtrière à Paris, il est également praticien hospitalier temps partiel au Groupe hospitalier universitaire Paris psychiatrie et neurosciences (GHU PARIS) où il dirige ESPAS, une unité de soutien psychologique pour les personnes concernées par le sida ou les problématiques liées à la sexualité. Il est aussi spécialiste des questions liées à la toxicomanie.
+Il participe aux activités du MLAC (Mouvement pour la liberté de l'avortement et de la contraception) au début de ses études de médecine en 1973 jusqu'au vote de la Loi Veil en 1975. Dans ces années là, il est actif dans la communauté homosexuelle, il joue dans le film Race d'Ep de Lionel Soukaz et participe au comité de rédaction du magazine Le Gai Pied. Très impliqué dans la lutte contre le Sida, il présente l'émission Ruban rouge sur France 5 en 1995 et 1996. Ainsi, dans une tribune de Libération, il préconise de fournir aux toxicomanes dans les prisons, de l'eau de Javel et du matériel stérile d'injection pour éviter la propagation du sida.
+Il intervient dans de nombreux colloques nationaux et internationaux sur les problématiques du couple et de la famille[réf. nécessaire]. En collaboration avec le magazine Libération, il a créé le blog « Familles, je vous haime » consacré à l’analyse de l’actualité sociale et ses répercussions sur les relations humaines.
+Dans La Sarkose obsessionnelle, paru un an après l'élection présidentielle de 2007, il analyse le narcissisme de la société française à travers celui de Nicolas Sarkozy,.
 Ses essais sur les relations conjugales et familiales La Danse du couple, Quand la famille s’emmêle, puis La Fabrique de la famille traduits dans plusieurs langues, ont connu un très vif succès[réf. nécessaire].
-Il a publié Dans le cœur des hommes, étude sur l’identité masculine qui a obtenu le Prix Psychologies-Fnac 2009, et en 2012 un essai sur les questions de genre, Le Nouvel ordre sexuel : pourquoi devient-on garçon ou fille ? Dans son dernier ouvrage : Transitions, Réinventer le genre paru en 2020, il analyse en quoi la dichotomie masculin/féminin ne suffit plus à organiser nos trajectoires et nos identités[11][source insuffisante].
-Depuis 2014, il reçoit des familles et des jeunes confrontés à la radicalisation islamiste en liaison avec la Préfecture de Paris dans son Unité de la Pitié Salpétrière et il supervise l’équipe du Centre de prévention des dérives sectaires liées à l’Islam dirigé par Dounia Bouzar[12]. Leur ouvrage « Je rêvais d’un autre monde, la folie adolescente au temps de Daesh » est paru en février 2017 chez Stock.
-Depuis 2016, il a ouvert avec l'équipe d'ESPAS une consultation spécialisée destinée aux jeunes en transition de genre[13].
+Il a publié Dans le cœur des hommes, étude sur l’identité masculine qui a obtenu le Prix Psychologies-Fnac 2009, et en 2012 un essai sur les questions de genre, Le Nouvel ordre sexuel : pourquoi devient-on garçon ou fille ? Dans son dernier ouvrage : Transitions, Réinventer le genre paru en 2020, il analyse en quoi la dichotomie masculin/féminin ne suffit plus à organiser nos trajectoires et nos identités[source insuffisante].
+Depuis 2014, il reçoit des familles et des jeunes confrontés à la radicalisation islamiste en liaison avec la Préfecture de Paris dans son Unité de la Pitié Salpétrière et il supervise l’équipe du Centre de prévention des dérives sectaires liées à l’Islam dirigé par Dounia Bouzar. Leur ouvrage « Je rêvais d’un autre monde, la folie adolescente au temps de Daesh » est paru en février 2017 chez Stock.
+Depuis 2016, il a ouvert avec l'équipe d'ESPAS une consultation spécialisée destinée aux jeunes en transition de genre.
 Serge Hefez est l’auteur de plusieurs séries documentaires pour la télévision dont Psyché et Accro sur France 5 (nommé aux 7 d’or 2001). Il  a été chroniqueur au Journal de la santé et dans l’émission Les Maternelles sur France 5. Il intervient régulièrement dans la presse écrite et audiovisuelle. Il a décrypté toutes les semaines l’actualité sur son blog du journal Libération et a animé pendant plus d’un an l’émission Familles hebdo sur Parenthèse Radio.
-Il a été producteur à France Culture, et chroniqueur à France Inter où il a participé tous les mercredis à l’émission Service public animée par Guillaume Erner[14]. Il a également animé une chronique dans Le Grand 8 (D8).
+Il a été producteur à France Culture, et chroniqueur à France Inter où il a participé tous les mercredis à l’émission Service public animée par Guillaume Erner. Il a également animé une chronique dans Le Grand 8 (D8).
 En 2013 il tient le rôle du psychiatre dans le film de François Ozon Jeune et Jolie.
-En 2021 il est engagé comme consultant sur la deuxième saison de la série d'Arte En thérapie par les réalisateurs Olivier Nakache et Eric Toledano[15].
-En 2023, il est nommé par la ministre des solidarités, Aurore Bergé, co-président d'une commission sur la parentalité censée répondre à la crise mise au jour par les émeutes consécutives à la mort de Nahel Merzouk. Les mesures évoquées initialement incluent « des travaux d’intérêt général pour les parents défaillants, le paiement d’une contribution financière pour les parents d’enfants coupables de dégradations auprès d’une association de victimes et une amende pour les parents ne se présentant pas aux audiences qui concernent leurs enfants »[16].
+En 2021 il est engagé comme consultant sur la deuxième saison de la série d'Arte En thérapie par les réalisateurs Olivier Nakache et Eric Toledano.
+En 2023, il est nommé par la ministre des solidarités, Aurore Bergé, co-président d'une commission sur la parentalité censée répondre à la crise mise au jour par les émeutes consécutives à la mort de Nahel Merzouk. Les mesures évoquées initialement incluent « des travaux d’intérêt général pour les parents défaillants, le paiement d’une contribution financière pour les parents d’enfants coupables de dégradations auprès d’une association de victimes et une amende pour les parents ne se présentant pas aux audiences qui concernent leurs enfants ».
 </t>
         </is>
       </c>
@@ -554,7 +568,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sida et vie psychique : approche clinique et prise en charge, Paris, La Découverte, 1996.
 La Danse du couple, avec Danièle Laufer, Paris, Hachette Littératures, 2002.
